--- a/CodeChamps_Dsalgo/src/test/resources/Exceldata/LoginData.xlsx
+++ b/CodeChamps_Dsalgo/src/test/resources/Exceldata/LoginData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajas\eclipse-workspace\DSalgo_CrossBrowser\CodeChamps_Dsalgo\src\test\resources\Exceldata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mahi\Code\codechamps\CodeChamps_Dsalgo\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BFC00D-0B16-4146-AA8A-EF3DF9920EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138B25A6-1235-4A29-8D9C-177B730414C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="4080" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32235" yWindow="2415" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -394,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -466,4 +467,18 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B929DFD-7344-4087-BE24-79F8D3C70D5D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CodeChamps_Dsalgo/src/test/resources/Exceldata/LoginData.xlsx
+++ b/CodeChamps_Dsalgo/src/test/resources/Exceldata/LoginData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mahi\Code\codechamps\CodeChamps_Dsalgo\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138B25A6-1235-4A29-8D9C-177B730414C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D571AEE-4435-45D3-91B5-347177DF11EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32235" yWindow="2415" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32100" yWindow="7740" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>username</t>
   </si>
@@ -65,6 +66,30 @@
   </si>
   <si>
     <t>expectedmessage</t>
+  </si>
+  <si>
+    <t>pythonCode</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>print"hello"</t>
+  </si>
+  <si>
+    <t>NameError: name 'hello' is not defined on line 1</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>outputtext</t>
+  </si>
+  <si>
+    <t>alerttext</t>
   </si>
 </sst>
 </file>
@@ -471,11 +496,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B929DFD-7344-4087-BE24-79F8D3C70D5D}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D913B2-CCF8-4F99-B8D6-ED9A9012FC50}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/CodeChamps_Dsalgo/src/test/resources/Exceldata/LoginData.xlsx
+++ b/CodeChamps_Dsalgo/src/test/resources/Exceldata/LoginData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mahi\Code\codechamps\CodeChamps_Dsalgo\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D571AEE-4435-45D3-91B5-347177DF11EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01331465-4BD0-419D-BF75-5D797708050D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32100" yWindow="7740" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -74,15 +75,21 @@
     <t>Result</t>
   </si>
   <si>
+    <t>print"hello"</t>
+  </si>
+  <si>
     <t>hello</t>
   </si>
   <si>
-    <t>print"hello"</t>
-  </si>
-  <si>
     <t>NameError: name 'hello' is not defined on line 1</t>
   </si>
   <si>
+    <t>Element Found</t>
+  </si>
+  <si>
+    <t>Some Tests failed. Please review code</t>
+  </si>
+  <si>
     <t>Element</t>
   </si>
   <si>
@@ -90,13 +97,16 @@
   </si>
   <si>
     <t>alerttext</t>
+  </si>
+  <si>
+    <t>DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|def search(input_list, num):|ENTER|if(num in input_list):|ENTER|print("Element Found")|ENTER|BACKSPACE|BACKSPACE|else:|ENTER|print("Not Found")|ENTER|BACKSPACE|BACKSPACE|BACKSPACE|BACKSPACE|search([12, 23, 45, 67, 6, 90] , 12)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +118,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,17 +147,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{33534BD8-9E2C-4B9D-96ED-535E955D0629}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,7 +443,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,18 +517,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B929DFD-7344-4087-BE24-79F8D3C70D5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1198AA43-37F6-4198-8DD5-233647F73BDD}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="47.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -517,29 +539,29 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -548,10 +570,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D913B2-CCF8-4F99-B8D6-ED9A9012FC50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB15D60B-B7F1-45BE-9A41-764B777FD6A5}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="141.109375" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69FBAEA-9DC8-4D37-AAC7-290F061AEC5B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/CodeChamps_Dsalgo/src/test/resources/Exceldata/LoginData.xlsx
+++ b/CodeChamps_Dsalgo/src/test/resources/Exceldata/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mahi\Code\codechamps\CodeChamps_Dsalgo\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01331465-4BD0-419D-BF75-5D797708050D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCA2EF2-B2A4-4238-A24B-1D79023CD1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>Element Found</t>
   </si>
   <si>
-    <t>Some Tests failed. Please review code</t>
-  </si>
-  <si>
     <t>Element</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|DELETE|def search(input_list, num):|ENTER|if(num in input_list):|ENTER|print("Element Found")|ENTER|BACKSPACE|BACKSPACE|else:|ENTER|print("Not Found")|ENTER|BACKSPACE|BACKSPACE|BACKSPACE|BACKSPACE|search([12, 23, 45, 67, 6, 90] , 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Some Tests failed. Please review code</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -550,7 +550,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -561,7 +561,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -592,29 +592,29 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
